--- a/server/uploads/import.xlsx
+++ b/server/uploads/import.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>msv</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Không</t>
   </si>
   <si>
-    <t>Trần Duy Linh</t>
-  </si>
-  <si>
     <t>0312412421</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Thiếu học phí</t>
   </si>
   <si>
-    <t>Trần Xuân Bách</t>
-  </si>
-  <si>
-    <t>0124124719</t>
-  </si>
-  <si>
     <t>Khen thưởng</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>0389469213</t>
   </si>
   <si>
-    <t>Đan Phượng, Hà Nội</t>
-  </si>
-  <si>
     <t>Bùi Minh Hiếu</t>
   </si>
   <si>
@@ -129,6 +117,42 @@
   </si>
   <si>
     <t>K65-CA-CLC-4</t>
+  </si>
+  <si>
+    <t>19021248</t>
+  </si>
+  <si>
+    <t>Đỗ Đại Dương</t>
+  </si>
+  <si>
+    <t>0977305864</t>
+  </si>
+  <si>
+    <t>Phương Mai, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>Hồng Hà, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>Lê Mạnh Cường</t>
+  </si>
+  <si>
+    <t>Thiếu tín chỉ</t>
+  </si>
+  <si>
+    <t>19021477</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>0378446886</t>
+  </si>
+  <si>
+    <t>Mỹ Đình, Nam Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Cảnh báo học vụ</t>
   </si>
 </sst>
 </file>
@@ -474,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -555,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,19 +587,19 @@
         <v>19021320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
-        <v>37086</v>
+        <v>36964</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="3">
         <v>78</v>
@@ -584,117 +608,117 @@
         <v>3.1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>19021206</v>
+        <v>19021235</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4">
-        <v>37087</v>
+        <v>37088</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>19021235</v>
+        <v>19021269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
-        <v>37088</v>
+        <v>37120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>80</v>
       </c>
       <c r="H5" s="2">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>19021269</v>
+        <v>19021275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
-        <v>37089</v>
+        <v>37090</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>19021275</v>
+        <v>19021306</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4">
-        <v>37090</v>
+        <v>37091</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -703,30 +727,30 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>19021306</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="4">
-        <v>37091</v>
+        <v>37023</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -734,27 +758,59 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3">
-        <v>82</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>37219</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E6" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E3 E4:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
